--- a/data/fakecsv/dept_SHOP.xlsx
+++ b/data/fakecsv/dept_SHOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="109">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,298 +40,280 @@
     <t>SHOP</t>
   </si>
   <si>
-    <t>874E7TET5HBS4LDAJ</t>
-  </si>
-  <si>
-    <t>VJLP1LVF5LM3SWSC1</t>
-  </si>
-  <si>
-    <t>ANC73CPE0MDY1F0VR</t>
-  </si>
-  <si>
-    <t>C4X7PACU1ZMERP56K</t>
-  </si>
-  <si>
-    <t>Y8KN917M6L05H12EX</t>
-  </si>
-  <si>
-    <t>H50ZTRZRXWG17JPAU</t>
-  </si>
-  <si>
-    <t>GP248KHK2MUUZ7PML</t>
-  </si>
-  <si>
-    <t>V9KZ3B85X37HSHD6P</t>
-  </si>
-  <si>
-    <t>NHJCJRHS5WH29ZZ08</t>
-  </si>
-  <si>
-    <t>EKL6GR3875CTMZ3MN</t>
-  </si>
-  <si>
-    <t>GVN5BB0R5K2WWH4A1</t>
-  </si>
-  <si>
-    <t>CUGUF8KN29YVJ3R5Z</t>
-  </si>
-  <si>
-    <t>HA0BP8ZN61AWG8T7Y</t>
-  </si>
-  <si>
-    <t>6FKLUDJF369JX0XP6</t>
-  </si>
-  <si>
-    <t>MF64BVZB5C8S5DU51</t>
-  </si>
-  <si>
-    <t>5AE6750F911SXUK0L</t>
-  </si>
-  <si>
-    <t>0P5LM62S5A2VL28KJ</t>
-  </si>
-  <si>
-    <t>3BMFCXHLXAD11YEE9</t>
-  </si>
-  <si>
-    <t>T1JJKPER9KDUH2S15</t>
-  </si>
-  <si>
-    <t>VM2DAJ1G1ADUH40J6</t>
-  </si>
-  <si>
-    <t>UFTBLN9985UZL01DK</t>
-  </si>
-  <si>
-    <t>90GKTSJN6MT9G1Y7R</t>
-  </si>
-  <si>
-    <t>F3WX5W5Y3N2777GJ6</t>
-  </si>
-  <si>
-    <t>EW8E8EJV57EFRTCA3</t>
-  </si>
-  <si>
-    <t>3BS6J8UT1Z9PCABGM</t>
-  </si>
-  <si>
-    <t>7UJAJ45S6J8DFBHNF</t>
-  </si>
-  <si>
-    <t>2RL43NHY8X2HLUVFU</t>
-  </si>
-  <si>
-    <t>1UJ16V1M20E2A54PY</t>
-  </si>
-  <si>
-    <t>5C98AN4X36T0CRKKP</t>
-  </si>
-  <si>
-    <t>291UD9PK3GPD57RZU</t>
-  </si>
-  <si>
-    <t>198ZHTXRXDZKCBT5U</t>
-  </si>
-  <si>
-    <t>BUSK0DFY0NBKT35X0</t>
-  </si>
-  <si>
-    <t>YS6T8CTD3MV004AFN</t>
-  </si>
-  <si>
-    <t>PNMSX0NC5GSAL7B6N</t>
-  </si>
-  <si>
-    <t>3JFUJYSA8M78AGD9E</t>
-  </si>
-  <si>
-    <t>REC01TU94VVD401E4</t>
-  </si>
-  <si>
-    <t>0GWY65R56A4MYPFPC</t>
-  </si>
-  <si>
-    <t>CDDF2VK84HJRLB6S4</t>
-  </si>
-  <si>
-    <t>HY03JKN774A51BLAA</t>
-  </si>
-  <si>
-    <t>D39X2MUP37E83097J</t>
-  </si>
-  <si>
-    <t>BTRACPCZ350DLAKGY</t>
-  </si>
-  <si>
-    <t>YXB091DS48Y01YGE8</t>
-  </si>
-  <si>
-    <t>UT6AA65H5B8PCKNB5</t>
-  </si>
-  <si>
-    <t>M7G346D29J8H9N7RD</t>
-  </si>
-  <si>
-    <t>GSXEN2NG38EBN6UPV</t>
-  </si>
-  <si>
-    <t>5BFMLX1G2SPW0DLK9</t>
-  </si>
-  <si>
-    <t>V6EYSEFJ29J93R10B</t>
-  </si>
-  <si>
-    <t>K46KCDPM8K2VPHWJX</t>
-  </si>
-  <si>
-    <t>SXYTF35N53NLUJY4D</t>
-  </si>
-  <si>
-    <t>Kyle Carson</t>
-  </si>
-  <si>
-    <t>Daniel Stevens</t>
-  </si>
-  <si>
-    <t>Melissa Kim</t>
-  </si>
-  <si>
-    <t>Christine Wise</t>
-  </si>
-  <si>
-    <t>Joseph Walker</t>
-  </si>
-  <si>
-    <t>Joshua Duncan</t>
-  </si>
-  <si>
-    <t>Melanie Ortiz</t>
-  </si>
-  <si>
-    <t>Jessica Martinez</t>
-  </si>
-  <si>
-    <t>Dennis Wu</t>
-  </si>
-  <si>
-    <t>Dr. Mary Gross</t>
-  </si>
-  <si>
-    <t>Rhonda Martin</t>
-  </si>
-  <si>
-    <t>Sarah Garza</t>
-  </si>
-  <si>
-    <t>David Santana</t>
-  </si>
-  <si>
-    <t>Janice Werner</t>
-  </si>
-  <si>
-    <t>Christian Porter Jr.</t>
-  </si>
-  <si>
-    <t>Pamela Brooks</t>
-  </si>
-  <si>
-    <t>Brian Owens</t>
-  </si>
-  <si>
-    <t>Casey Hernandez</t>
-  </si>
-  <si>
-    <t>Jerry Jones</t>
-  </si>
-  <si>
-    <t>Ricardo Elliott</t>
-  </si>
-  <si>
-    <t>Diana Fernandez</t>
-  </si>
-  <si>
-    <t>Deborah Franco</t>
-  </si>
-  <si>
-    <t>Jamie Perez</t>
-  </si>
-  <si>
-    <t>Collin Smith</t>
-  </si>
-  <si>
-    <t>Gary Cook</t>
-  </si>
-  <si>
-    <t>Cynthia Ibarra</t>
-  </si>
-  <si>
-    <t>Ronald Lee</t>
-  </si>
-  <si>
-    <t>Amy Ellis</t>
-  </si>
-  <si>
-    <t>Robin Wells</t>
-  </si>
-  <si>
-    <t>Tiffany Davis</t>
-  </si>
-  <si>
-    <t>Tonya Scott</t>
-  </si>
-  <si>
-    <t>Donald Adams</t>
-  </si>
-  <si>
-    <t>Steven Brown</t>
-  </si>
-  <si>
-    <t>Beth Schaefer</t>
-  </si>
-  <si>
-    <t>Brandon Gould</t>
-  </si>
-  <si>
-    <t>Marcia Goodman</t>
-  </si>
-  <si>
-    <t>Donald Silva</t>
-  </si>
-  <si>
-    <t>Lisa Jennings</t>
-  </si>
-  <si>
-    <t>Elizabeth Ware</t>
-  </si>
-  <si>
-    <t>Mark Krueger</t>
-  </si>
-  <si>
-    <t>Morgan Jackson</t>
-  </si>
-  <si>
-    <t>Katherine Stewart</t>
-  </si>
-  <si>
-    <t>Chad Hudson</t>
-  </si>
-  <si>
-    <t>Jeffery Smith</t>
-  </si>
-  <si>
-    <t>Samantha Mitchell</t>
-  </si>
-  <si>
-    <t>Sean Campbell</t>
-  </si>
-  <si>
-    <t>Joanna Gillespie</t>
-  </si>
-  <si>
-    <t>Gregory Gray MD</t>
-  </si>
-  <si>
-    <t>Dale Clay</t>
+    <t>ZV304UU73SCXS0YBH</t>
+  </si>
+  <si>
+    <t>HGK87ZT33R6LUE2SR</t>
+  </si>
+  <si>
+    <t>VZTY202D6CA3BYKXD</t>
+  </si>
+  <si>
+    <t>7ES6V1P5XESCF4N3M</t>
+  </si>
+  <si>
+    <t>1HM1HM828SZE921NW</t>
+  </si>
+  <si>
+    <t>Z6ZAW35Z3BE9BJ9BW</t>
+  </si>
+  <si>
+    <t>EWKTXSTU3EAX71L90</t>
+  </si>
+  <si>
+    <t>4NNJZY4681XMHVN9Y</t>
+  </si>
+  <si>
+    <t>FYCRP28W6DDLZDH7M</t>
+  </si>
+  <si>
+    <t>KV9KRWUZXAA46GMYY</t>
+  </si>
+  <si>
+    <t>HBATNBBY1TSGABMJT</t>
+  </si>
+  <si>
+    <t>0MV1FMZS6LB3SFUUE</t>
+  </si>
+  <si>
+    <t>D1NSRWSU8758V73ZD</t>
+  </si>
+  <si>
+    <t>2R0DSDE47KFR47DRP</t>
+  </si>
+  <si>
+    <t>39LVCJZB6EEYPUDZL</t>
+  </si>
+  <si>
+    <t>GGKP5A232K63JW4EA</t>
+  </si>
+  <si>
+    <t>FA13WWTU91RFELA5N</t>
+  </si>
+  <si>
+    <t>TPHNVCSGX3GKEA7YT</t>
+  </si>
+  <si>
+    <t>LP1P2Y397YNU9AFFD</t>
+  </si>
+  <si>
+    <t>K67A7KWR88THBAAYV</t>
+  </si>
+  <si>
+    <t>47W0N9Z66T3FXKNTD</t>
+  </si>
+  <si>
+    <t>276P5LSR736NGYN13</t>
+  </si>
+  <si>
+    <t>NX09NP8V6M5510YFH</t>
+  </si>
+  <si>
+    <t>1B77Z7CZ7NN6M9VPA</t>
+  </si>
+  <si>
+    <t>DE44RC996M9NLRA2N</t>
+  </si>
+  <si>
+    <t>96AWTMGK60TCU3JGD</t>
+  </si>
+  <si>
+    <t>UNUTAY1M11LUBY4R5</t>
+  </si>
+  <si>
+    <t>VGDZK03J4S1ZWFENL</t>
+  </si>
+  <si>
+    <t>C3TURSW9XRP4CEUVT</t>
+  </si>
+  <si>
+    <t>1LKKMP1G1EY6GNT09</t>
+  </si>
+  <si>
+    <t>0NLD05845YCAPNDD2</t>
+  </si>
+  <si>
+    <t>L9XYUPXG6WVREM4VC</t>
+  </si>
+  <si>
+    <t>BSE7N49D8SD75ZBL3</t>
+  </si>
+  <si>
+    <t>86NBJGG28SZ541PGR</t>
+  </si>
+  <si>
+    <t>PB3NC27T2BN77SYJZ</t>
+  </si>
+  <si>
+    <t>CVF4K3E30NPJDAPMG</t>
+  </si>
+  <si>
+    <t>0XTR4D5Z8EBPUBS3P</t>
+  </si>
+  <si>
+    <t>BY8HWZ4P57VY0SAKV</t>
+  </si>
+  <si>
+    <t>MEKZJLKG3PSRLX1KH</t>
+  </si>
+  <si>
+    <t>CAR0U8WF2JU4C127X</t>
+  </si>
+  <si>
+    <t>X1P5KFXX9WE1YRSV7</t>
+  </si>
+  <si>
+    <t>VHDG28U81HB2W7D5T</t>
+  </si>
+  <si>
+    <t>W5KWZ6EW9SEX5CEX9</t>
+  </si>
+  <si>
+    <t>V0JD7G5V84CD0TH3D</t>
+  </si>
+  <si>
+    <t>S85Z4SDB5VHV9V2C4</t>
+  </si>
+  <si>
+    <t>Z4KHDGMC074DCMEEL</t>
+  </si>
+  <si>
+    <t>Nicole Phillips</t>
+  </si>
+  <si>
+    <t>Christina Martinez</t>
+  </si>
+  <si>
+    <t>Chris Kane</t>
+  </si>
+  <si>
+    <t>John Jones MD</t>
+  </si>
+  <si>
+    <t>Brian Morrison</t>
+  </si>
+  <si>
+    <t>Stephen Macdonald</t>
+  </si>
+  <si>
+    <t>Kimberly Murray</t>
+  </si>
+  <si>
+    <t>Gregory Chan</t>
+  </si>
+  <si>
+    <t>Timothy James</t>
+  </si>
+  <si>
+    <t>Gregory Anderson</t>
+  </si>
+  <si>
+    <t>Christopher Cohen</t>
+  </si>
+  <si>
+    <t>Anthony Williams</t>
+  </si>
+  <si>
+    <t>Robert Gomez</t>
+  </si>
+  <si>
+    <t>Megan Williamson</t>
+  </si>
+  <si>
+    <t>Nathan Green</t>
+  </si>
+  <si>
+    <t>Jennifer Carrillo</t>
+  </si>
+  <si>
+    <t>Raymond Anderson</t>
+  </si>
+  <si>
+    <t>Sherry Perez</t>
+  </si>
+  <si>
+    <t>Larry Hicks</t>
+  </si>
+  <si>
+    <t>Sarah Santiago</t>
+  </si>
+  <si>
+    <t>Angelica Scott</t>
+  </si>
+  <si>
+    <t>Hannah Long</t>
+  </si>
+  <si>
+    <t>Melissa Martinez</t>
+  </si>
+  <si>
+    <t>Alan Carr</t>
+  </si>
+  <si>
+    <t>Dorothy Willis</t>
+  </si>
+  <si>
+    <t>Steven Fields</t>
+  </si>
+  <si>
+    <t>Misty Mitchell</t>
+  </si>
+  <si>
+    <t>Carlos Turner</t>
+  </si>
+  <si>
+    <t>Michelle Dennis</t>
+  </si>
+  <si>
+    <t>Amanda Jones</t>
+  </si>
+  <si>
+    <t>Jack Wolf</t>
+  </si>
+  <si>
+    <t>Kelsey Gaines</t>
+  </si>
+  <si>
+    <t>Michael Williams</t>
+  </si>
+  <si>
+    <t>Patrick Martin</t>
+  </si>
+  <si>
+    <t>Anthony Phillips</t>
+  </si>
+  <si>
+    <t>Maria Jenkins</t>
+  </si>
+  <si>
+    <t>Mary Russo</t>
+  </si>
+  <si>
+    <t>Patricia Erickson</t>
+  </si>
+  <si>
+    <t>Terry Allen</t>
+  </si>
+  <si>
+    <t>Raymond Jackson</t>
+  </si>
+  <si>
+    <t>Christina Thomas</t>
+  </si>
+  <si>
+    <t>Eric Smith</t>
+  </si>
+  <si>
+    <t>Calvin Williams</t>
+  </si>
+  <si>
+    <t>Steven Lawrence</t>
+  </si>
+  <si>
+    <t>Anthony Todd</t>
+  </si>
+  <si>
+    <t>Jacqueline Hull</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -716,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,10 +735,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -770,10 +752,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -787,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -804,10 +786,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -818,13 +800,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -835,13 +817,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -852,13 +834,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -869,13 +851,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -886,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -906,10 +888,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -937,13 +919,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -954,13 +936,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -971,13 +953,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -991,10 +973,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1008,10 +990,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1025,10 +1007,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1039,13 +1021,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1059,10 +1041,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1076,10 +1058,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1090,13 +1072,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1107,13 +1089,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1124,13 +1106,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1141,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1158,13 +1140,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1175,13 +1157,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1192,13 +1174,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1209,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1226,13 +1208,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1243,13 +1225,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1260,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1277,13 +1259,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1294,13 +1276,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1311,13 +1293,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
         <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1328,13 +1310,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1345,13 +1327,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1362,13 +1344,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1379,13 +1361,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1396,13 +1378,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1413,13 +1395,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1430,13 +1412,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1447,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1464,13 +1446,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1481,13 +1463,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1498,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1515,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1532,13 +1514,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1549,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1566,13 +1548,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1583,13 +1565,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1600,13 +1582,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1617,13 +1599,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1634,13 +1616,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1651,13 +1633,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1668,13 +1650,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1685,13 +1667,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1702,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1719,13 +1701,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1736,13 +1718,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1753,13 +1735,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1770,13 +1752,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1787,13 +1769,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1804,13 +1786,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1821,13 +1803,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1838,13 +1820,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1855,13 +1837,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1872,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1889,13 +1871,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1906,13 +1888,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1923,13 +1905,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1940,13 +1922,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1957,13 +1939,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1974,13 +1956,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1991,13 +1973,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2008,13 +1990,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2025,13 +2007,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2042,13 +2024,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2059,13 +2041,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2076,13 +2058,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2093,13 +2075,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2110,13 +2092,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E82" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2127,13 +2109,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2144,13 +2126,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2161,13 +2143,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2178,13 +2160,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2195,13 +2177,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2212,13 +2194,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2229,13 +2211,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2246,13 +2228,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E90" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2263,13 +2245,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2280,13 +2262,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E92" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2297,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2314,13 +2296,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2331,13 +2313,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2348,13 +2330,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2365,13 +2347,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2382,13 +2364,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E98" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2399,13 +2381,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E99" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2416,13 +2398,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E100" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2433,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2450,13 +2432,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2467,13 +2449,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E103" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2484,13 +2466,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2501,13 +2483,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E105" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2518,13 +2500,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D106" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E106" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2535,13 +2517,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E107" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2552,13 +2534,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E108" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2569,13 +2551,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E109" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2586,13 +2568,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2603,13 +2585,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E111" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2620,13 +2602,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E112" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2637,13 +2619,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E113" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2654,13 +2636,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2671,13 +2653,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2688,13 +2670,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E116" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2705,13 +2687,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E117" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2722,13 +2704,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E118" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2739,13 +2721,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D119" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E119" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2756,13 +2738,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E120" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2773,13 +2755,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E121" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2790,13 +2772,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E122" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2807,13 +2789,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2824,13 +2806,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E124" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2841,13 +2823,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E125" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2858,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E126" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2875,13 +2857,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E127" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2892,13 +2874,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E128" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2909,13 +2891,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E129" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2926,13 +2908,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E130" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2943,13 +2925,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E131" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2960,13 +2942,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E132" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2977,13 +2959,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E133" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2994,13 +2976,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D134" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E134" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3011,13 +2993,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E135" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3028,13 +3010,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E136" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3045,13 +3027,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E137" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3062,13 +3044,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E138" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3079,13 +3061,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E139" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3096,13 +3078,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E140" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3113,13 +3095,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E141" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3130,13 +3112,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D142" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E142" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3147,13 +3129,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3164,10 +3146,10 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D144" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E144" t="s">
         <v>106</v>
@@ -3181,13 +3163,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E145" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3198,13 +3180,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D146" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E146" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3215,13 +3197,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E147" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3232,13 +3214,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E148" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3249,13 +3231,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E149" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3266,13 +3248,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E150" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3283,13 +3265,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E151" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3300,13 +3282,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E152" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3317,13 +3299,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E153" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3334,13 +3316,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E154" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3351,13 +3333,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E155" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3368,13 +3350,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E156" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3385,10 +3367,10 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E157" t="s">
         <v>106</v>
@@ -3402,10 +3384,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E158" t="s">
         <v>107</v>
@@ -3419,13 +3401,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E159" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3436,13 +3418,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E160" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3453,13 +3435,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E161" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3470,13 +3452,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D162" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E162" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3487,13 +3469,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D163" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E163" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3504,13 +3486,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D164" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E164" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3521,13 +3503,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D165" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E165" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3538,13 +3520,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D166" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E166" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3555,13 +3537,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E167" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3572,13 +3554,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E168" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3589,13 +3571,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E169" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3606,13 +3588,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E170" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3623,13 +3605,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D171" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E171" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3640,13 +3622,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E172" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3657,13 +3639,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E173" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3674,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D174" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E174" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3691,13 +3673,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D175" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E175" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3708,13 +3690,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D176" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E176" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3725,13 +3707,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E177" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3742,13 +3724,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E178" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3759,13 +3741,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E179" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3776,13 +3758,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D180" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E180" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3793,13 +3775,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D181" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E181" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3810,13 +3792,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D182" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E182" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3827,13 +3809,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D183" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E183" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3844,13 +3826,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D184" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E184" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3861,13 +3843,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D185" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E185" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3878,13 +3860,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D186" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E186" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3895,13 +3877,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D187" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E187" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3912,13 +3894,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D188" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E188" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3929,13 +3911,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E189" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3946,13 +3928,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D190" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E190" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3963,13 +3945,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D191" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E191" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3980,13 +3962,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D192" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E192" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3997,13 +3979,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E193" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4014,13 +3996,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D194" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E194" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4031,13 +4013,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E195" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4048,13 +4030,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E196" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4065,13 +4047,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D197" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E197" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4082,13 +4064,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D198" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E198" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4099,13 +4081,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D199" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E199" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4116,13 +4098,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D200" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E200" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4133,13 +4115,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D201" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E201" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4150,13 +4132,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D202" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E202" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4167,7 +4149,7 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D203" t="s">
         <v>97</v>
@@ -4184,7 +4166,7 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D204" t="s">
         <v>97</v>
@@ -4201,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D205" t="s">
         <v>97</v>
@@ -4218,13 +4200,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D206" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E206" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4235,13 +4217,13 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D207" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E207" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4252,13 +4234,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D208" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E208" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4269,13 +4251,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D209" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E209" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4286,13 +4268,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D210" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E210" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4303,13 +4285,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D211" t="s">
         <v>98</v>
       </c>
       <c r="E211" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4320,13 +4302,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D212" t="s">
         <v>98</v>
       </c>
       <c r="E212" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4337,13 +4319,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D213" t="s">
         <v>98</v>
       </c>
       <c r="E213" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4354,13 +4336,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D214" t="s">
         <v>99</v>
       </c>
       <c r="E214" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4371,13 +4353,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D215" t="s">
         <v>99</v>
       </c>
       <c r="E215" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4388,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D216" t="s">
         <v>99</v>
       </c>
       <c r="E216" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4405,13 +4387,13 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D217" t="s">
         <v>99</v>
       </c>
       <c r="E217" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4422,13 +4404,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D218" t="s">
         <v>99</v>
       </c>
       <c r="E218" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4439,13 +4421,13 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D219" t="s">
         <v>99</v>
       </c>
       <c r="E219" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4456,506 +4438,13 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D220" t="s">
         <v>99</v>
       </c>
       <c r="E220" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>50</v>
-      </c>
-      <c r="D221" t="s">
-        <v>99</v>
-      </c>
-      <c r="E221" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>51</v>
-      </c>
-      <c r="D222" t="s">
-        <v>100</v>
-      </c>
-      <c r="E222" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
-        <v>51</v>
-      </c>
-      <c r="D223" t="s">
-        <v>100</v>
-      </c>
-      <c r="E223" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>51</v>
-      </c>
-      <c r="D224" t="s">
-        <v>100</v>
-      </c>
-      <c r="E224" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225" t="s">
-        <v>52</v>
-      </c>
-      <c r="D225" t="s">
-        <v>101</v>
-      </c>
-      <c r="E225" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" t="s">
-        <v>52</v>
-      </c>
-      <c r="D226" t="s">
-        <v>101</v>
-      </c>
-      <c r="E226" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" t="s">
-        <v>52</v>
-      </c>
-      <c r="D227" t="s">
-        <v>101</v>
-      </c>
-      <c r="E227" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>6</v>
-      </c>
-      <c r="B228" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" t="s">
-        <v>52</v>
-      </c>
-      <c r="D228" t="s">
-        <v>101</v>
-      </c>
-      <c r="E228" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>6</v>
-      </c>
-      <c r="B229" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229" t="s">
-        <v>52</v>
-      </c>
-      <c r="D229" t="s">
-        <v>101</v>
-      </c>
-      <c r="E229" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>6</v>
-      </c>
-      <c r="B230" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230" t="s">
-        <v>52</v>
-      </c>
-      <c r="D230" t="s">
-        <v>101</v>
-      </c>
-      <c r="E230" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" t="s">
-        <v>7</v>
-      </c>
-      <c r="C231" t="s">
-        <v>52</v>
-      </c>
-      <c r="D231" t="s">
-        <v>101</v>
-      </c>
-      <c r="E231" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
-        <v>6</v>
-      </c>
-      <c r="B232" t="s">
-        <v>7</v>
-      </c>
-      <c r="C232" t="s">
-        <v>52</v>
-      </c>
-      <c r="D232" t="s">
-        <v>101</v>
-      </c>
-      <c r="E232" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>6</v>
-      </c>
-      <c r="B233" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233" t="s">
-        <v>53</v>
-      </c>
-      <c r="D233" t="s">
-        <v>102</v>
-      </c>
-      <c r="E233" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
-        <v>6</v>
-      </c>
-      <c r="B234" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" t="s">
-        <v>54</v>
-      </c>
-      <c r="D234" t="s">
-        <v>103</v>
-      </c>
-      <c r="E234" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>6</v>
-      </c>
-      <c r="B235" t="s">
-        <v>7</v>
-      </c>
-      <c r="C235" t="s">
-        <v>55</v>
-      </c>
-      <c r="D235" t="s">
-        <v>104</v>
-      </c>
-      <c r="E235" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
-        <v>6</v>
-      </c>
-      <c r="B236" t="s">
-        <v>7</v>
-      </c>
-      <c r="C236" t="s">
-        <v>55</v>
-      </c>
-      <c r="D236" t="s">
-        <v>104</v>
-      </c>
-      <c r="E236" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" t="s">
-        <v>6</v>
-      </c>
-      <c r="B237" t="s">
-        <v>7</v>
-      </c>
-      <c r="C237" t="s">
-        <v>55</v>
-      </c>
-      <c r="D237" t="s">
-        <v>104</v>
-      </c>
-      <c r="E237" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
-        <v>6</v>
-      </c>
-      <c r="B238" t="s">
-        <v>7</v>
-      </c>
-      <c r="C238" t="s">
-        <v>55</v>
-      </c>
-      <c r="D238" t="s">
-        <v>104</v>
-      </c>
-      <c r="E238" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" t="s">
-        <v>6</v>
-      </c>
-      <c r="B239" t="s">
-        <v>7</v>
-      </c>
-      <c r="C239" t="s">
-        <v>55</v>
-      </c>
-      <c r="D239" t="s">
-        <v>104</v>
-      </c>
-      <c r="E239" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" t="s">
-        <v>6</v>
-      </c>
-      <c r="B240" t="s">
-        <v>7</v>
-      </c>
-      <c r="C240" t="s">
-        <v>55</v>
-      </c>
-      <c r="D240" t="s">
-        <v>104</v>
-      </c>
-      <c r="E240" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" t="s">
-        <v>6</v>
-      </c>
-      <c r="B241" t="s">
-        <v>7</v>
-      </c>
-      <c r="C241" t="s">
-        <v>55</v>
-      </c>
-      <c r="D241" t="s">
-        <v>104</v>
-      </c>
-      <c r="E241" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242" t="s">
-        <v>55</v>
-      </c>
-      <c r="D242" t="s">
-        <v>104</v>
-      </c>
-      <c r="E242" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" t="s">
-        <v>6</v>
-      </c>
-      <c r="B243" t="s">
-        <v>7</v>
-      </c>
-      <c r="C243" t="s">
-        <v>56</v>
-      </c>
-      <c r="D243" t="s">
-        <v>105</v>
-      </c>
-      <c r="E243" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" t="s">
-        <v>6</v>
-      </c>
-      <c r="B244" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" t="s">
-        <v>56</v>
-      </c>
-      <c r="D244" t="s">
-        <v>105</v>
-      </c>
-      <c r="E244" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" t="s">
-        <v>6</v>
-      </c>
-      <c r="B245" t="s">
-        <v>7</v>
-      </c>
-      <c r="C245" t="s">
-        <v>56</v>
-      </c>
-      <c r="D245" t="s">
-        <v>105</v>
-      </c>
-      <c r="E245" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" t="s">
-        <v>6</v>
-      </c>
-      <c r="B246" t="s">
-        <v>7</v>
-      </c>
-      <c r="C246" t="s">
-        <v>56</v>
-      </c>
-      <c r="D246" t="s">
-        <v>105</v>
-      </c>
-      <c r="E246" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" t="s">
-        <v>6</v>
-      </c>
-      <c r="B247" t="s">
-        <v>7</v>
-      </c>
-      <c r="C247" t="s">
-        <v>56</v>
-      </c>
-      <c r="D247" t="s">
-        <v>105</v>
-      </c>
-      <c r="E247" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" t="s">
-        <v>6</v>
-      </c>
-      <c r="B248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C248" t="s">
-        <v>56</v>
-      </c>
-      <c r="D248" t="s">
-        <v>105</v>
-      </c>
-      <c r="E248" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" t="s">
-        <v>6</v>
-      </c>
-      <c r="B249" t="s">
-        <v>7</v>
-      </c>
-      <c r="C249" t="s">
-        <v>56</v>
-      </c>
-      <c r="D249" t="s">
-        <v>105</v>
-      </c>
-      <c r="E249" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
